--- a/tests/Templates/Subranges_WithSubtotals_tMD2.xlsx
+++ b/tests/Templates/Subranges_WithSubtotals_tMD2.xlsx
@@ -13,7 +13,6 @@
     <definedName name="Customers">'Sheet 1'!$A$4:$J$11</definedName>
     <definedName name="Customers_Orders">'Sheet 1'!$A$6:$J$10</definedName>
     <definedName name="Customers_Orders_Items">'Sheet 1'!$A$8:$J$9</definedName>
-    <definedName name="Table1Range">'Sheet 1'!#REF!</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
